--- a/data/tehilim-data/20.xlsx
+++ b/data/tehilim-data/20.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="127">
   <si>
     <t>original</t>
   </si>
@@ -55,10 +55,16 @@
     <t>Господь</t>
   </si>
   <si>
-    <t>בְּיוֹם צָרָה</t>
-  </si>
-  <si>
-    <t>в день скорби</t>
+    <t>בְּיוֹם</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>צָרָה</t>
+  </si>
+  <si>
+    <t>день</t>
   </si>
   <si>
     <t>יְשַׂגֶּבְךָ</t>
@@ -67,10 +73,22 @@
     <t>защитит тебя</t>
   </si>
   <si>
-    <t>שֵׁם אֱלֹהֵי יַעֲקֹב</t>
-  </si>
-  <si>
-    <t>имя Бога Иакова</t>
+    <t>שֵׁם</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>אֱלֹהֵי</t>
+  </si>
+  <si>
+    <t>Бога</t>
+  </si>
+  <si>
+    <t>יַעֲקֹב</t>
+  </si>
+  <si>
+    <t>Иакова</t>
   </si>
   <si>
     <t>ג</t>
@@ -112,7 +130,7 @@
     <t>כָּל-מ</t>
   </si>
   <si>
-    <t xml:space="preserve">все </t>
+    <t>все</t>
   </si>
   <si>
     <t>מִנְחֹתֶךָ</t>
@@ -127,10 +145,16 @@
     <t>и всесожжения твои</t>
   </si>
   <si>
-    <t>יְדַשְּׁנֶה סֶלָה</t>
-  </si>
-  <si>
-    <t>да примет с благорасположением</t>
+    <t>יְדַשְּׁנֶה</t>
+  </si>
+  <si>
+    <t>да примет</t>
+  </si>
+  <si>
+    <t>סֶלָה</t>
+  </si>
+  <si>
+    <t>с благорасположением</t>
   </si>
   <si>
     <t>ה</t>
@@ -211,10 +235,16 @@
     <t>я знаю</t>
   </si>
   <si>
-    <t>כִּי הוֹשִׁיעַ</t>
-  </si>
-  <si>
-    <t>что спасает</t>
+    <t>כִּי</t>
+  </si>
+  <si>
+    <t>что</t>
+  </si>
+  <si>
+    <t>הוֹשִׁיעַ</t>
+  </si>
+  <si>
+    <t>спасает</t>
   </si>
   <si>
     <t>מְשִׁיחוֹ</t>
@@ -235,25 +265,46 @@
     <t>с неба святого Своего</t>
   </si>
   <si>
-    <t>בִּגְבוּרוֹת יֵשַׁע יְמִינוֹ</t>
-  </si>
-  <si>
-    <t>могуществом спасения десницы Своей</t>
+    <t>בִּגְבוּרוֹת</t>
+  </si>
+  <si>
+    <t>могуществом</t>
+  </si>
+  <si>
+    <t>יֵשַׁע</t>
+  </si>
+  <si>
+    <t>спасения</t>
+  </si>
+  <si>
+    <t>יְמִינוֹ</t>
+  </si>
+  <si>
+    <t>десницы Своей</t>
   </si>
   <si>
     <t>ח</t>
   </si>
   <si>
-    <t>אֵלֶּה בָרֶכֶב</t>
-  </si>
-  <si>
-    <t>иные колесницами</t>
-  </si>
-  <si>
-    <t>וְאֵלֶּה בַסּוּסִים</t>
-  </si>
-  <si>
-    <t>иные конями</t>
+    <t>אֵלֶּה</t>
+  </si>
+  <si>
+    <t>иные</t>
+  </si>
+  <si>
+    <t>בָרֶכֶב</t>
+  </si>
+  <si>
+    <t>колесницами</t>
+  </si>
+  <si>
+    <t>וְאֵלֶּה</t>
+  </si>
+  <si>
+    <t>בַסּוּסִים</t>
+  </si>
+  <si>
+    <t>конями</t>
   </si>
   <si>
     <t>וַאֲנַחְנוּ</t>
@@ -271,10 +322,13 @@
     <t>Господа</t>
   </si>
   <si>
-    <t>אֱלֹהֵינוּ נַזְכִּיר</t>
-  </si>
-  <si>
-    <t>Бога нашего хвалимся</t>
+    <t>אֱלֹהֵינוּ</t>
+  </si>
+  <si>
+    <t>נַזְכִּיר</t>
+  </si>
+  <si>
+    <t>нашего</t>
   </si>
   <si>
     <t>ט</t>
@@ -286,16 +340,28 @@
     <t>Они</t>
   </si>
   <si>
-    <t>כָּרְעוּ וְנָפָלוּ</t>
-  </si>
-  <si>
-    <t>колеблются и падают</t>
-  </si>
-  <si>
-    <t>קַּמְנוּ וַנִּתְעוֹדָד</t>
-  </si>
-  <si>
-    <t>стоим прямо и крепки</t>
+    <t>כָּרְעוּ</t>
+  </si>
+  <si>
+    <t>колеблются</t>
+  </si>
+  <si>
+    <t>וְנָפָלוּ</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>קַּמְנוּ</t>
+  </si>
+  <si>
+    <t>стоим</t>
+  </si>
+  <si>
+    <t>וַנִּתְעוֹדָד</t>
+  </si>
+  <si>
+    <t>прямо</t>
   </si>
   <si>
     <t>י</t>
@@ -332,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -348,6 +414,11 @@
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -370,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -382,13 +453,16 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +702,7 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -637,7 +711,7 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
@@ -646,13 +720,13 @@
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6">
@@ -661,508 +735,613 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6">
         <v>3.0</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6">
         <v>4.0</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="6">
         <v>5.0</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6">
         <v>6.0</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="B37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="6">
         <v>7.0</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="6">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="6">
         <v>8.0</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="6">
-        <v>9.0</v>
-      </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>90</v>
+      <c r="A53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>94</v>
+      <c r="A56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="4">
+        <v>98</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="6">
         <v>10.0</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="2"/>
+      <c r="B70" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
